--- a/biology/Médecine/Maladie_transmissible/Maladie_transmissible.xlsx
+++ b/biology/Médecine/Maladie_transmissible/Maladie_transmissible.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une maladie transmissible est une maladie qui peut passer d'une personne infectée à une autre personne auparavant non infectée.
 </t>
@@ -511,7 +523,9 @@
           <t>Moyens de transmission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Toux ou éternuements
 Contact physique direct (y compris les contacts sexuels)
@@ -547,7 +561,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour survivre, les micro-organismes doivent avoir une façon d'être transmis d'un hôte à un autre. Les agents infectieux sont généralement spécialisés pour un mode particulier de transmission. Prenons exemple sur les voies respiratoires, un virus ou une bactérie qui provoque son hôte à développer les symptômes de toux et les éternuements a un grand avantage de survie, il est beaucoup plus susceptible d'être éjecté d'un hôte et de procéder à un autre hôte. C'est aussi pour cette raison que de nombreux micro-organismes causent la diarrhée.
 </t>
@@ -578,7 +594,9 @@
           <t>Lieu d'entrée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En médecine, un lieu d'entrée est un point sur le corps, où un agent pathogène pénètre.
 Il existe différents lieux d'entrée :
@@ -612,7 +630,9 @@
           <t>Maladies transmissibles par voies respiratoires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les maladies qui sont généralement propagées par la toux ou les éternuements sont les suivantes :
 Méningite bactérienne
@@ -653,7 +673,9 @@
           <t>Maladies transmissibles par voies orales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les maladies qui sont généralement propagées par voies orales sont les suivantes :
 Choléra
@@ -690,7 +712,9 @@
           <t>Maladies transmissibles par voies sexuelles</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir Infection sexuellement transmissible Comme (S.I.D.A (VIH))
 </t>
@@ -721,7 +745,9 @@
           <t>Maladies transmissibles par contact direct</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Les maladies qui sont généralement propagées par contact direct (toucher, salive, selles, muqueuses, yeux) sont les suivantes :
 Pied d'athlète
@@ -755,7 +781,9 @@
           <t>Maladies dont la transmission iatrogénique est notable</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Les maladies qui sont propagées par acte médical (seringues infectées... ) sont notamment les suivantes :
 Hepatite C
